--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,7 +327,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -402,6 +402,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -437,6 +454,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,8 +650,8 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -705,6 +739,9 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F4" s="3">
+        <v>43004</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
@@ -748,6 +785,9 @@
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$28</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,9 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目表、决议单、承保表、零星费用收入、零星费用支出中都要有担保费、担保费率、业务咨询费、业务咨询费率、评审费和财务顾问费</t>
-  </si>
-  <si>
     <t>报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流程终结功能（意达仓库）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +212,75 @@
   </si>
   <si>
     <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决议审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有单据的审批意见，双击能打开显示具体的意见内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">流程终结功能（意达仓库）
+2017-09-29 改为：增加‘项目暂缓’功能。只需要在决策审批时 主任委员审批，决策人审批，评审会秘书录入会议决议单（补议，回到A角）
+（暂缓，只保留项目基础信息，删除其他所有涉及到的单据）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议决议单编号部分手输。序列号部分手输
+决议审批单现有序列号后面的数字不要生成，再给一个框直接输入三位数字，后台将这三位数字合并后存入数据库产生新的会议决议单字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反担保解除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要能上传附件，在流程审批时也需要上传附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人员的调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间的总经理审批去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风管经理调整额度加入一个（是，否）是的话继续现在的流程，否的话流程直接结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目表、决议单、承保表、零星费用收入、零星费用支出中都要有担保费、担保费率、担保费单位、业务咨询费、业务咨询费率、评审费、财务顾问费
+融资和非融资的担保费率和担保费单位要分开处理。（加子表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保审批的时候不需要加入反担保信息查看功能，陈雯雯经理，邓婕经理确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,11 +678,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -672,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>43004</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -691,11 +757,17 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="3">
+        <v>43010</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="B4" s="3">
+        <v>42998</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
@@ -705,8 +777,17 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F4" s="3">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42998</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -717,7 +798,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42998</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -728,7 +815,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42998</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
@@ -739,150 +832,384 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42998</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42998</v>
+      </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42998</v>
+      </c>
       <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="C12" s="2" t="s">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>42998</v>
+      </c>
       <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42998</v>
+      </c>
       <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="82.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42998</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>42998</v>
+      </c>
       <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43007</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="D21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="3">
+        <v>43007</v>
+      </c>
+      <c r="G21" s="3">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43007</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43007</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="3">
+        <v>43010</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>43007</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43007</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>43007</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43007</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G28">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.34" bottom="0.27" header="0.21" footer="0.17"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -679,11 +679,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1202,6 +1202,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G28">
     <filterColumn colId="5">

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,87 @@
   </si>
   <si>
     <t>承保审批的时候不需要加入反担保信息查看功能，陈雯雯经理，邓婕经理确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体签批时候，在流程内加入总经理、风管部门经理、分管风险领导的必须审批，其余集体签批在2/3即可跳过（和现在的处理方式一致）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受理日期、咨询方式在决策审批中删掉，币种要调整为可选项即美元、人民币、欧元、日元、其他，而且必须选择币种，否则无法到下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保审批与承保补录，如果是融资担保，必须选银行；如果是非融资担保，银行可以不选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务品种可以让项目经理去选择，但是如果不选择，无法到下一步？之前就是严格控制的，后来说不需要，现在是否确定在做新增项目的时候需要填写这些内容？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保期限、放款方式、还款方式、每次还款额改为必填，其中还款方式若为一次性还款，则后面的每次还款额可以不填；
+若还款方式为每月（或每季或其他）还款，则后面的每次还款额需要填。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款方式需要删除“一次性还款”；减掉一个“到期一次性还款”，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用印管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用印时，核保书份数删除掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反担保管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保补录中，委托担保合同号要自动出来“锡联担保2017-B-WT”，而且跳出来后可以修改，主合同号，保证合同号，承保开始日期要必填，目前委托担保合同号编码规则为锡联担保2017–B–WT，两个横线处都是自主填写的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反担保物解除流程要能上传附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统皮肤改回原来的蓝色，这样便于对红色和黄色进行区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反担保信息，要求增加功能，可以使项目经理看到反担保信息表格形式或者大类名称加数字，让领导能一目了然看到反担保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除反担保流程内，删除第一个总经理审批环节；删除保证金质押判断及财务经理和出纳操作；在倒数第二步通知环节，加入判断，若有保证金解除，则增加通知财务经理和出纳，若无保证金解除，则维持原流程。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,12 +759,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -781,7 +861,7 @@
         <v>43007</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -798,7 +878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -815,7 +895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -832,7 +912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -849,7 +929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -866,7 +946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -883,7 +963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -900,7 +980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -917,7 +997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -934,7 +1014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -951,7 +1031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -968,7 +1048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -985,7 +1065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1002,7 +1082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1019,7 +1099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="82.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1036,7 +1116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1197,19 +1277,448 @@
         <v>43010</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
+      <c r="B28" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="3">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>43008</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G28">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G32"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.34" bottom="0.27" header="0.21" footer="0.17"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -345,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反担保物解除流程要能上传附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +358,10 @@
   </si>
   <si>
     <t>解除反担保流程内，删除第一个总经理审批环节；删除保证金质押判断及财务经理和出纳操作；在倒数第二步通知环节，加入判断，若有保证金解除，则增加通知财务经理和出纳，若无保证金解除，则维持原流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反担保物解除流程要能上传附件.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +763,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1425,7 +1425,7 @@
         <v>79</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>59</v>
@@ -1465,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>7</v>
@@ -1482,10 +1482,10 @@
         <v>43008</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>59</v>
@@ -1505,7 +1505,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="程序改动" sheetId="1" r:id="rId1"/>
+    <sheet name="数据库改动" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">程序改动!$A$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数据库改动!$A$1:$D$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +364,50 @@
   </si>
   <si>
     <t>反担保物解除流程要能上传附件.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Procedure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改动类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否更新到生产机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
@@ -1723,4 +1769,499 @@
   <pageMargins left="0.25" right="0.25" top="0.34" bottom="0.27" header="0.21" footer="0.17"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="66.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.34" bottom="0.27" header="0.21" footer="0.17"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,7 +367,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Trigger</t>
+    <t>改动类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否更新到生产机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -375,47 +391,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Procedure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改动类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否更新到生产机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <t>tbs_projcfm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm2` </t>
+  </si>
+  <si>
+    <t>ADD COLUMN `FINANCIAL` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '财务顾问费用' AFTER `GATRATEU`,</t>
+  </si>
+  <si>
+    <t>ADD COLUMN `ZXFY` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '咨询费用' AFTER `FINANCIAL`;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm1` </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbs_projcfm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">repaymem=new.repaymem, gatrate=new.gatrate, gatrateu=new.gatrateu, psfy=new.psfy, qtfy=new.qtfy, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZXFY=new.ZXFY,FINANCIAL=new.FINANCIAL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gatmem=new.gatmem, memo=new.memo, riskavoid=new.riskavoid  -- 条款同步</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIGGER</t>
+  </si>
+  <si>
+    <t>tbs_projcfm1_AFTER_UPDATE</t>
+  </si>
+  <si>
+    <t>tbs_projcfm2_AFTER_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store_Procedures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_undwrt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>insert into tbs_projundwrt(KEYIN_ID,CUS_ID,PROJ_ID,PROJ_SN,LOANTYPE,LOANMEM,REPAY,REPAYINPER,REPAYMEM,PERIOD_CFM,GATRATE,GATRATEU,PSFY,QTFY,GATMEM,BDATE,EDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,FINANCIAL,ZXFY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)
+  select keyinid,a.CUS_ID,a.ID,a.SN,a.LOANTYPE,a.LOANMEM,a.REPAY,a.REPAYINPER,a.REPAYMEM,a.PERIOD_CFM,a.GATRATE,a.GATRATEU,a.PSFY,a.QTFY,a.GATMEM,A.BDATE,A.EDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,a.FINANCIAL,a.ZXFY</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +530,35 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -487,11 +605,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -499,6 +614,30 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,7 +658,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -594,6 +733,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -629,6 +785,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,958 +981,979 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="66.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="66.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="10">
         <v>42998</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="10">
         <v>43007</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>42998</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="10">
         <v>43010</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="10">
         <v>42998</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="10">
         <v>43007</v>
       </c>
+      <c r="G4" s="10">
+        <v>43007</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="10">
         <v>42998</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <v>42998</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="10">
         <v>42998</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>42998</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="10">
         <v>42998</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="10">
         <v>42998</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="10">
         <v>42998</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="10">
         <v>42998</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="10">
         <v>42998</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="10">
         <v>42998</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="10">
         <v>42998</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="10">
         <v>42998</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="10">
         <v>42998</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="10">
         <v>42998</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="10">
         <v>42998</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="10">
         <v>42998</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="10">
         <v>43007</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="10">
         <v>43007</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="10">
         <v>43007</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="10">
         <v>43007</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="10">
         <v>43010</v>
       </c>
+      <c r="G22" s="10">
+        <v>43012</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="10">
         <v>43007</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="10">
         <v>43010</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="10">
         <v>43007</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="10">
         <v>43010</v>
       </c>
+      <c r="G24" s="10">
+        <v>41916</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="10">
         <v>43007</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="10">
         <v>43010</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="10">
         <v>43007</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="10">
         <v>43010</v>
       </c>
+      <c r="G26" s="10">
+        <v>41916</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="10">
         <v>43007</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="10">
         <v>43010</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="10">
         <v>43008</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="10">
         <v>43010</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="10">
         <v>43008</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="10">
         <v>43010</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="10">
         <v>43008</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="10">
         <v>43010</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="10">
         <v>43008</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="10">
         <v>43008</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="10">
         <v>43010</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="10">
         <v>43008</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="10">
         <v>43010</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="10">
         <v>43008</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="10">
         <v>43010</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
+    <row r="35" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="10">
         <v>43008</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="10">
         <v>43010</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
+    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="10">
         <v>43008</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="10">
         <v>43010</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="10">
         <v>43008</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="10">
         <v>43010</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
+      <c r="G37" s="10">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="10">
         <v>43008</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="10">
         <v>43010</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
+      <c r="G38" s="10">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="10">
         <v>43008</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
+      <c r="G39" s="10">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
+      <c r="A50" s="9">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
+      <c r="A52" s="9">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
+      <c r="A54" s="9">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
+      <c r="A56" s="9">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
+      <c r="A58" s="9">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
+      <c r="A60" s="9">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
+      <c r="A62" s="9">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
+      <c r="A64" s="9">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
+      <c r="A65" s="9">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
+      <c r="A66" s="9">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
+      <c r="A67" s="9">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
+      <c r="A68" s="9">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
+      <c r="A69" s="9">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
+      <c r="A70" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
+      <c r="A71" s="9">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2">
+      <c r="A72" s="9">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
+      <c r="A73" s="9">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="2">
+      <c r="A74" s="9">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2">
+      <c r="A75" s="9">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
+      <c r="A76" s="9">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="2">
+      <c r="A77" s="9">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2">
+      <c r="A78" s="9">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2">
+      <c r="A79" s="9">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2">
+      <c r="A80" s="9">
         <v>79</v>
       </c>
     </row>
@@ -1777,485 +1971,538 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="66.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="D7" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="B8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="B9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="2">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="2">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
     </row>

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="程序改动" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,19 +394,9 @@
     <t>tbs_projcfm1</t>
   </si>
   <si>
-    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm2` </t>
-  </si>
-  <si>
-    <t>ADD COLUMN `FINANCIAL` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '财务顾问费用' AFTER `GATRATEU`,</t>
-  </si>
-  <si>
     <t>ADD COLUMN `ZXFY` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '咨询费用' AFTER `FINANCIAL`;</t>
   </si>
   <si>
-    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm1` </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,6 +406,24 @@
   </si>
   <si>
     <t>tbs_projcfm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIGGER</t>
+  </si>
+  <si>
+    <t>tbs_projcfm1_AFTER_UPDATE</t>
+  </si>
+  <si>
+    <t>tbs_projcfm2_AFTER_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store_Procedures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_undwrt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -426,9 +434,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ZXFY=new.ZXFY,FINANCIAL=new.FINANCIAL,</t>
     </r>
@@ -436,67 +445,71 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>gatmem=new.gatmem, memo=new.memo, riskavoid=new.riskavoid  -- 条款同步</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRIGGER</t>
-  </si>
-  <si>
-    <t>tbs_projcfm1_AFTER_UPDATE</t>
-  </si>
-  <si>
-    <t>tbs_projcfm2_AFTER_UPDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store_Procedures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_undwrt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>insert into tbs_projundwrt(KEYIN_ID,CUS_ID,PROJ_ID,PROJ_SN,LOANTYPE,LOANMEM,REPAY,REPAYINPER,REPAYMEM,PERIOD_CFM,GATRATE,GATRATEU,PSFY,QTFY,GATMEM,BDATE,EDATE</t>
+      <t xml:space="preserve">repaymem=new.repaymem, gatrate=new.gatrate, gatrateu=new.gatrateu, psfy=new.psfy, qtfy=new.qtfy, </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>,FINANCIAL,ZXFY</t>
+      <t>ZXFY=new.ZXFY,FINANCIAL=new.FINANCIAL,</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>)
-  select keyinid,a.CUS_ID,a.ID,a.SN,a.LOANTYPE,a.LOANMEM,a.REPAY,a.REPAYINPER,a.REPAYMEM,a.PERIOD_CFM,a.GATRATE,a.GATRATEU,a.PSFY,a.QTFY,a.GATMEM,A.BDATE,A.EDATE</t>
+      <t>gatmem=new.gatmem, memo=new.memo, riskavoid=new.riskavoid  -- 条款同步</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,a.FINANCIAL,a.ZXFY</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into tbs_projundwrt(KEYIN_ID,CUS_ID,PROJ_ID,PROJ_SN,LOANTYPE,LOANMEM,REPAY,REPAYINPER,REPAYMEM,PERIOD_CFM,GATRATE,GATRATEU,PSFY,QTFY,GATMEM,BDATE,EDATE,FINANCIAL,ZXFY)
+  select keyinid,a.CUS_ID,a.ID,a.SN,a.LOANTYPE,a.LOANMEM,a.REPAY,a.REPAYINPER,a.REPAYMEM,a.PERIOD_CFM,a.GATRATE,a.GATRATEU,a.PSFY,a.QTFY,a.GATMEM,A.BDATE,A.EDATE,a.FINANCIAL,a.ZXFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm1` </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD COLUMN `FINANCIAL` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '财务顾问费用' AFTER `GATRATEU`,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm2` </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_proj` </t>
+  </si>
+  <si>
+    <t>ADD COLUMN `ZXFY` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '咨询费用（元）数据来自cfm1或者cfm2' AFTER `QTFY`;</t>
+  </si>
+  <si>
+    <t>tbs_proj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +538,22 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -552,13 +581,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -605,28 +627,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,6 +642,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -980,980 +996,992 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="66.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="66.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>42998</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>43007</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>42998</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>43010</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>42998</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>43007</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>43007</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>42998</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>42998</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>42998</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>42998</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>42998</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>42998</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>42998</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>42998</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>42998</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>42998</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>42998</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>42998</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>42998</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>42998</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>42998</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>42998</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>43007</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>43007</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <v>43007</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>43007</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <v>43010</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <v>43012</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>43007</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <v>43010</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>43007</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>43010</v>
       </c>
-      <c r="G24" s="10">
-        <v>41916</v>
+      <c r="G24" s="8">
+        <v>43012</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>43007</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <v>43010</v>
       </c>
+      <c r="G25" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>43007</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <v>43010</v>
       </c>
-      <c r="G26" s="10">
-        <v>41916</v>
+      <c r="G26" s="8">
+        <v>43012</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>43007</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <v>43010</v>
       </c>
+      <c r="G27" s="8">
+        <v>43013</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>43008</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <v>43010</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>43008</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <v>43010</v>
       </c>
+      <c r="G29" s="8">
+        <v>43013</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <v>43008</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <v>43010</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="8">
         <v>43008</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="8">
         <v>43008</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="8">
         <v>43010</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>43008</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="8">
         <v>43010</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <v>43008</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="8">
         <v>43010</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>43008</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="8">
         <v>43010</v>
       </c>
+      <c r="G35" s="8">
+        <v>43013</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <v>43008</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="8">
         <v>43010</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="8">
         <v>43008</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="8">
         <v>43010</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="8">
         <v>43012</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="8">
         <v>43008</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="8">
         <v>43010</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="8">
         <v>43012</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="8">
         <v>43008</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="8">
         <v>43012</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="9">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="9">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="9">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="9">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="9">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="9">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="9">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="9">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="9">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="9">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="9">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="9">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="9">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="9">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="9">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="9">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="9">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="9">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="9">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="9">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="9">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="9">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="9">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="9">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="9">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="9">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="9">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="9">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="9">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="9">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="9">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="9">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
     </row>
@@ -1969,540 +1997,554 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="D6" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="D7" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6"/>
-    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
     </row>

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -998,7 +998,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1548,6 +1548,9 @@
       </c>
       <c r="F28" s="8">
         <v>43010</v>
+      </c>
+      <c r="G28" s="8">
+        <v>43014</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
@@ -2171,7 +2174,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">程序改动!$A$1:$G$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数据库改动!$A$1:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数据库改动!$A$1:$D$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>承保补录中，委托担保合同号要自动出来“锡联担保2017-B-WT”，而且跳出来后可以修改，主合同号，保证合同号，承保开始日期要必填，目前委托担保合同号编码规则为锡联担保2017–B–WT，两个横线处都是自主填写的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,9 +385,6 @@
   <si>
     <t>Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbs_projcfm1</t>
   </si>
   <si>
     <t>ADD COLUMN `ZXFY` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '咨询费用' AFTER `FINANCIAL`;</t>
@@ -512,12 +505,38 @@
     <t>tbs_proj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>承保补录中，委托担保合同号要自动出来“锡联担保2017-B-WT”，而且跳出来后可以修改，主合同号，保证合同号，承保开始日期要必填，目前委托担保合同号编码规则为锡联担保2017–B–WT，两个横线处都是自主填写的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-- set new.sn = concat('锡联担保',DATE_FORMAT(NOW(),'%Y'),'-',new.bzht,'-',new.zht);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbs_projundwrt_cfmar_BEFORE_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm1` </t>
+  </si>
+  <si>
+    <t>CHANGE COLUMN `BY2` `BY2` VARCHAR(200) NULL DEFAULT NULL COMMENT '决议审批单补充字段' ;</t>
+  </si>
+  <si>
+    <t>tbs_projcfm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +585,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -627,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -644,16 +670,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -997,994 +1026,1014 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="66.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="66.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>42998</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>43007</v>
       </c>
+      <c r="G2" s="9">
+        <v>43015</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>42998</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>43010</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>42998</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <v>43007</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>43007</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>42998</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>42998</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>42998</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>42998</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>42998</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>42998</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>42998</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>42998</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>42998</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>42998</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>42998</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>42998</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>42998</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>42998</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>42998</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>42998</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>43007</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="9">
         <v>43007</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="9">
         <v>43007</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>43007</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="9">
         <v>43010</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="9">
         <v>43012</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>43007</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="9">
         <v>43010</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="9">
+        <v>43016</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>43007</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9">
         <v>43010</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="9">
         <v>43012</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>43007</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <v>43010</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>108</v>
+      <c r="G25" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>43007</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="9">
         <v>43010</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="9">
         <v>43012</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>43007</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <v>43010</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="9">
         <v>43013</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
         <v>43008</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <v>43010</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="9">
         <v>43014</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="9">
         <v>43008</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="9">
         <v>43010</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <v>43013</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="9">
         <v>43008</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="9">
         <v>43010</v>
       </c>
+      <c r="G30" s="9">
+        <v>43016</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="9">
         <v>43008</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="G31" s="9">
+        <v>43016</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="9">
         <v>43008</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="9">
         <v>43010</v>
       </c>
+      <c r="G32" s="9">
+        <v>43015</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="9">
         <v>43008</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="9">
         <v>43010</v>
       </c>
+      <c r="G33" s="9">
+        <v>43015</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="9">
         <v>43008</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="9">
         <v>43010</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="9">
         <v>43008</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="9">
+        <v>43010</v>
+      </c>
+      <c r="G35" s="9">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9">
+        <v>43008</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="9">
+        <v>43010</v>
+      </c>
+      <c r="G36" s="9">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9">
+        <v>43008</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="9">
+        <v>43010</v>
+      </c>
+      <c r="G37" s="9">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9">
+        <v>43008</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F38" s="9">
         <v>43010</v>
       </c>
-      <c r="G35" s="8">
-        <v>43013</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8">
+      <c r="G38" s="9">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9">
         <v>43008</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="9">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="7" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="F36" s="8">
-        <v>43010</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8">
-        <v>43008</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="8">
-        <v>43010</v>
-      </c>
-      <c r="G37" s="8">
-        <v>43012</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8">
-        <v>43008</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="8">
-        <v>43010</v>
-      </c>
-      <c r="G38" s="8">
-        <v>43012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8">
-        <v>43008</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="8">
-        <v>43012</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="7">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="7">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="7">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="7">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="7">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="7">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="7">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="7">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="7">
-        <v>72</v>
-      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="7">
+      <c r="A74" s="8">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="7">
+      <c r="A75" s="8">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="7">
+      <c r="A76" s="8">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="7">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="7">
+      <c r="A78" s="8">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="7">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="7">
+      <c r="A80" s="8">
         <v>79</v>
       </c>
     </row>
@@ -1998,18 +2047,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="3" customWidth="1"/>
@@ -2021,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2041,16 +2090,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2059,7 +2108,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2068,7 +2117,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2076,16 +2125,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2094,7 +2143,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2103,7 +2152,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.15">
@@ -2111,16 +2160,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.15">
@@ -2128,16 +2177,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.15">
@@ -2145,16 +2194,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -2162,16 +2211,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.15">
@@ -2180,374 +2229,393 @@
       </c>
       <c r="B12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
         <v>79</v>
       </c>
     </row>

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="程序改动" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,14 +388,6 @@
   </si>
   <si>
     <t>ADD COLUMN `ZXFY` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '咨询费用' AFTER `FINANCIAL`;</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tbs_projcfm2</t>
@@ -448,6 +440,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm1` </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD COLUMN `FINANCIAL` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '财务顾问费用' AFTER `GATRATEU`,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm2` </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_proj` </t>
+  </si>
+  <si>
+    <t>ADD COLUMN `ZXFY` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '咨询费用（元）数据来自cfm1或者cfm2' AFTER `QTFY`;</t>
+  </si>
+  <si>
+    <t>tbs_proj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保补录中，委托担保合同号要自动出来“锡联担保2017-B-WT”，而且跳出来后可以修改，主合同号，保证合同号，承保开始日期要必填，目前委托担保合同号编码规则为锡联担保2017–B–WT，两个横线处都是自主填写的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-- set new.sn = concat('锡联担保',DATE_FORMAT(NOW(),'%Y'),'-',new.bzht,'-',new.zht);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbs_projundwrt_cfmar_BEFORE_UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm1` </t>
+  </si>
+  <si>
+    <t>CHANGE COLUMN `BY2` `BY2` VARCHAR(200) NULL DEFAULT NULL COMMENT '决议审批单补充字段' ;</t>
+  </si>
+  <si>
+    <t>tbs_projcfm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into tbs_projundwrt(KEYIN_ID,CUS_ID,PROJ_ID,PROJ_SN,LOANTYPE,LOANMEM,REPAY,REPAYINPER,REPAYMEM,PERIOD_CFM,GATRATE,GATRATEU,PSFY,QTFY,GATMEM,BDATE,EDATE,FINANCIAL,ZXFY)
+  select keyinid,a.CUS_ID,a.ID,a.SN,a.LOANTYPE,a.LOANMEM,a.REPAY,a.REPAYINPER,a.REPAYMEM,a.PERIOD_CFM,a.GATRATE,a.GATRATEU,a.PSFY,a.QTFY,a.GATMEM,A.BDATE,A.EDATE,a.FINANCIAL,a.ZXFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">repaymem=new.repaymem, gatrate=new.gatrate, gatrateu=new.gatrateu, psfy=new.psfy, qtfy=new.qtfy, </t>
     </r>
@@ -476,59 +529,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into tbs_projundwrt(KEYIN_ID,CUS_ID,PROJ_ID,PROJ_SN,LOANTYPE,LOANMEM,REPAY,REPAYINPER,REPAYMEM,PERIOD_CFM,GATRATE,GATRATEU,PSFY,QTFY,GATMEM,BDATE,EDATE,FINANCIAL,ZXFY)
-  select keyinid,a.CUS_ID,a.ID,a.SN,a.LOANTYPE,a.LOANMEM,a.REPAY,a.REPAYINPER,a.REPAYMEM,a.PERIOD_CFM,a.GATRATE,a.GATRATEU,a.PSFY,a.QTFY,a.GATMEM,A.BDATE,A.EDATE,a.FINANCIAL,a.ZXFY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm1` </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD COLUMN `FINANCIAL` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '财务顾问费用' AFTER `GATRATEU`,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm2` </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_proj` </t>
-  </si>
-  <si>
-    <t>ADD COLUMN `ZXFY` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '咨询费用（元）数据来自cfm1或者cfm2' AFTER `QTFY`;</t>
-  </si>
-  <si>
-    <t>tbs_proj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承保补录中，委托担保合同号要自动出来“锡联担保2017-B-WT”，而且跳出来后可以修改，主合同号，保证合同号，承保开始日期要必填，目前委托担保合同号编码规则为锡联担保2017–B–WT，两个横线处都是自主填写的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-- set new.sn = concat('锡联担保',DATE_FORMAT(NOW(),'%Y'),'-',new.bzht,'-',new.zht);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbs_projundwrt_cfmar_BEFORE_UPDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projcfm1` </t>
-  </si>
-  <si>
-    <t>CHANGE COLUMN `BY2` `BY2` VARCHAR(200) NULL DEFAULT NULL COMMENT '决议审批单补充字段' ;</t>
-  </si>
-  <si>
-    <t>tbs_projcfm1</t>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -683,6 +692,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
@@ -1515,7 +1527,7 @@
         <v>43010</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1753,7 +1765,7 @@
         <v>70</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>72</v>
@@ -2049,9 +2061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2093,13 +2105,13 @@
         <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2108,7 +2120,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2128,13 +2140,13 @@
         <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2143,7 +2155,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2160,16 +2172,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.15">
@@ -2177,16 +2189,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>93</v>
+      <c r="D9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.15">
@@ -2194,16 +2206,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -2214,13 +2226,13 @@
         <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.15">
@@ -2229,7 +2241,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -2237,13 +2249,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>113</v>
@@ -2257,13 +2269,13 @@
         <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -2272,7 +2284,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="D15" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="程序改动" sheetId="1" r:id="rId1"/>
-    <sheet name="数据库改动" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="数据库改动" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">程序改动!$A$1:$H$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数据库改动!$A$1:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数据库改动!$A$1:$D$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="196">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,68 +510,246 @@
     <t>代偿审议</t>
   </si>
   <si>
+    <t>决策审批、不定期检查、代偿审议、项目变更</t>
+  </si>
+  <si>
+    <t>业务审核委员会或风险管理委员会秘书录入决议时，先弹出意见，决议内容需要另点标签不直观，容易遗漏</t>
+  </si>
+  <si>
+    <t>跨部门的审核是否还是业务总监来审核？</t>
+  </si>
+  <si>
+    <t>流程改为：A-B-A的部门经理-风管部部门经理-业务评审委员会-业务评审委员会秘书录入决议-风管委员会秘书决定是否上风管委员会-风管委员会秘书录入风管会决议-分管风险领导-决策人（2000万分界）</t>
+  </si>
+  <si>
+    <t>代偿审议表单</t>
+  </si>
+  <si>
+    <t>增加字段：担保金额、担保余额、合作银行、担保期限、反担保措施、拟代偿本金（手动输入）</t>
+  </si>
+  <si>
+    <t>反担保信息维护菜单</t>
+  </si>
+  <si>
+    <t>质押大类-汇票/本票/支票小类，增加字段：出票人和到期日</t>
+  </si>
+  <si>
+    <t>追偿</t>
+  </si>
+  <si>
+    <t>代偿余额未根据追偿金额变化，少追偿收入字段</t>
+  </si>
+  <si>
+    <t>决策审批</t>
+  </si>
+  <si>
+    <t>业务类品金大类改为必填</t>
+  </si>
+  <si>
+    <t>业务类品金类别与金额都必填</t>
+  </si>
+  <si>
+    <t>法务经理审批环节，看不到审批历史</t>
+  </si>
+  <si>
+    <t>申请表和审批表不一致，三个人分别为请印人、施印人、经办人，施印人控制为行政经理和综合管理部部门经理</t>
+  </si>
+  <si>
+    <t>反担保解除-风管经理调整授信额度</t>
+  </si>
+  <si>
+    <t>反担保解除变更数据标签表单中，无数据单位</t>
+  </si>
+  <si>
+    <t>综合管理部部门经理也要能够审批</t>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事长</t>
+  </si>
+  <si>
+    <t>业务总监</t>
+  </si>
+  <si>
+    <t>副总经理</t>
+  </si>
+  <si>
+    <t>总经理助理</t>
+  </si>
+  <si>
+    <t>业务一部门经理</t>
+  </si>
+  <si>
+    <t>业务三部门经理[副]</t>
+  </si>
+  <si>
+    <t>综合管理部门经理</t>
+  </si>
+  <si>
+    <t>风管经理</t>
+  </si>
+  <si>
+    <t>法务经理</t>
+  </si>
+  <si>
+    <t>业务审核委员会成员</t>
+  </si>
+  <si>
+    <t>分管风管总经理</t>
+  </si>
+  <si>
+    <t>评审会秘书</t>
+  </si>
+  <si>
+    <t>分管行政总经理</t>
+  </si>
+  <si>
+    <t>业管会主任委员</t>
+  </si>
+  <si>
+    <t>分管财务总经理</t>
+  </si>
+  <si>
+    <t>财务部门经理</t>
+  </si>
+  <si>
+    <t>出纳</t>
+  </si>
+  <si>
+    <t>业务二部门经理</t>
+  </si>
+  <si>
+    <t>董事长[总经理/决策人]</t>
+  </si>
+  <si>
+    <t>副总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务一部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务二部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务三部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险管理部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险管理部门经理[副]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合管理部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风管经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法务经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受理请印人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险控制委员会成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务审核委员会成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控会主任委员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业管会主任委员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分管财务总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分管行政总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分管风管总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,,,,,,,,,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审会秘书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分管业务总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务一部部门经理助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务拓展部门副经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改为提交表单时选择的施印人为审批人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>业务评审委员会秘书改为郭斌、杨好、陆野、许益丹，风险管理委员会秘书改为汪宏明</t>
-  </si>
-  <si>
-    <t>决策审批、不定期检查、代偿审议、项目变更</t>
-  </si>
-  <si>
-    <t>业务审核委员会或风险管理委员会秘书录入决议时，先弹出意见，决议内容需要另点标签不直观，容易遗漏</t>
-  </si>
-  <si>
-    <t>跨部门的审核是否还是业务总监来审核？</t>
-  </si>
-  <si>
-    <t>流程改为：A-B-A的部门经理-风管部部门经理-业务评审委员会-业务评审委员会秘书录入决议-风管委员会秘书决定是否上风管委员会-风管委员会秘书录入风管会决议-分管风险领导-决策人（2000万分界）</t>
-  </si>
-  <si>
-    <t>代偿审议表单</t>
-  </si>
-  <si>
-    <t>增加字段：担保金额、担保余额、合作银行、担保期限、反担保措施、拟代偿本金（手动输入）</t>
-  </si>
-  <si>
-    <t>反担保信息维护菜单</t>
-  </si>
-  <si>
-    <t>质押大类-汇票/本票/支票小类，增加字段：出票人和到期日</t>
-  </si>
-  <si>
-    <t>追偿</t>
-  </si>
-  <si>
-    <t>代偿余额未根据追偿金额变化，少追偿收入字段</t>
-  </si>
-  <si>
-    <t>决策审批</t>
-  </si>
-  <si>
-    <t>业务类品金大类改为必填</t>
-  </si>
-  <si>
-    <t>业务类品金类别与金额都必填</t>
-  </si>
-  <si>
-    <t>法务经理审批环节，看不到审批历史</t>
-  </si>
-  <si>
-    <t>申请表和审批表不一致，三个人分别为请印人、施印人、经办人，施印人控制为行政经理和综合管理部部门经理</t>
-  </si>
-  <si>
-    <t>反担保解除-风管经理调整授信额度</t>
-  </si>
-  <si>
-    <t>反担保解除变更数据标签表单中，无数据单位</t>
-  </si>
-  <si>
-    <t>综合管理部部门经理也要能够审批</t>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后来得到反馈，此项不需要修改，跨部门审批人修改为分管业务总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳审批环节现在不必先领取任务，可以直接进入处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程描述中加入了项目名称，方便区分不同项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +757,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +783,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -650,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,6 +848,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1014,23 +1206,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="81.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1267,7 +1459,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1288,7 +1480,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1639,7 +1831,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1720,7 +1912,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1747,7 +1939,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2020,7 +2212,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2038,13 +2230,16 @@
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G42" s="3">
         <v>43024</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="H42" s="3">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2062,10 +2257,13 @@
       </c>
       <c r="F43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G43" s="3">
         <v>43024</v>
+      </c>
+      <c r="H43" s="3">
+        <v>43023</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2086,10 +2284,13 @@
       </c>
       <c r="F44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G44" s="3">
         <v>43024</v>
+      </c>
+      <c r="H44" s="3">
+        <v>43023</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
@@ -2136,6 +2337,7 @@
       <c r="G46" s="3">
         <v>43024</v>
       </c>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
@@ -2189,7 +2391,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2207,13 +2409,16 @@
       </c>
       <c r="F49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G49" s="3">
         <v>43024</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H49" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2231,13 +2436,16 @@
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G50" s="3">
         <v>43024</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H50" s="3">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2264,7 +2472,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2275,20 +2483,23 @@
         <v>125</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G52" s="3">
         <v>43024</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
+      <c r="H52" s="3">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2296,10 +2507,10 @@
         <v>43019</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
@@ -2309,7 +2520,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2320,17 +2531,17 @@
         <v>108</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2341,17 +2552,17 @@
         <v>125</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2359,20 +2570,20 @@
         <v>43019</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2380,23 +2591,26 @@
         <v>43019</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G57" s="3">
         <v>43024</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H57" s="3">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2404,10 +2618,10 @@
         <v>43019</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>59</v>
@@ -2420,7 +2634,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2428,23 +2642,26 @@
         <v>43019</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G59" s="3">
         <v>43024</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H59" s="3">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2455,10 +2672,10 @@
         <v>105</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2468,7 +2685,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2479,20 +2696,23 @@
         <v>105</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G61" s="3">
         <v>43024</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="H61" s="3">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2503,20 +2723,26 @@
         <v>101</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G62" s="3">
         <v>43024</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H62" s="3">
+        <v>43023</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2524,23 +2750,26 @@
         <v>43019</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G63" s="3">
         <v>43024</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H63" s="3">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2551,17 +2780,20 @@
         <v>101</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G64" s="3">
         <v>43024</v>
+      </c>
+      <c r="H64" s="3">
+        <v>43023</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
@@ -2708,7 +2940,23 @@
         <v>否</v>
       </c>
     </row>
-    <row r="81" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="4:8" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D82" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H82" s="3">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D83" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H83" s="3">
+        <v>43023</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H81">
     <filterColumn colId="5">
@@ -2744,6 +2992,226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="60.125" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -8,19 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="程序改动" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="数据库改动" sheetId="3" r:id="rId3"/>
+    <sheet name="数据库改动" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">程序改动!$A$1:$H$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数据库改动!$A$1:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数据库改动!$A$1:$D$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="200">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -750,6 +750,22 @@
   </si>
   <si>
     <t>流程描述中加入了项目名称，方便区分不同项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策审批、不定期检查、代偿审议、项目变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保单审批，项目与反担保关联，费用收取，费用退回风险解除(追偿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程改为：A-B-A的部门经理-风管部部门经理-业务评审委员会-业务评审委员会秘书录入决议-风管委员会秘书决定是否上风管委员会-风管委员会秘书录入风管会决议-分管风险领导-决策人（2000万分界）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +799,21 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -836,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,8 +884,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,1755 +1252,1780 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="81.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="81.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="29.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="8">
         <v>42998</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="7" t="str">
         <f>IF(H2="","否","是")</f>
         <v>是</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="8">
         <v>43007</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>42998</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="7" t="str">
         <f t="shared" ref="F3:F66" si="0">IF(H3="","否","是")</f>
         <v>是</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="8">
         <v>43010</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>42998</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <v>43007</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>42998</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <v>42998</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="8">
         <v>42998</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>42998</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="8">
         <v>42998</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="8">
         <v>42998</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>42998</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="8">
         <v>42998</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="8">
         <v>42998</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="8">
         <v>42998</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="8">
         <v>42998</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="8">
         <v>42998</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="2" t="str">
+      <c r="F16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="8">
         <v>42998</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="2" t="str">
+      <c r="F17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="8">
         <v>42998</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="2" t="str">
+      <c r="F18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="8">
         <v>42998</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2" t="str">
+      <c r="F19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="8">
         <v>42998</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="2" t="str">
+      <c r="F20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="8">
         <v>43007</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="2" t="str">
+      <c r="F21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="8">
         <v>43007</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="8">
         <v>43007</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="8">
         <v>43007</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="2" t="str">
+      <c r="F22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="8">
         <v>43010</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="8">
         <v>43007</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="2" t="str">
+      <c r="F23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="8">
         <v>43010</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="8">
         <v>43007</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="2" t="str">
+      <c r="F24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="8">
         <v>43010</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="8">
         <v>43007</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="2" t="str">
+      <c r="F25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="8">
         <v>43010</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="8">
         <v>43007</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="2" t="str">
+      <c r="F26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="8">
         <v>43010</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="8">
         <v>43007</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="2" t="str">
+      <c r="F27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="8">
         <v>43010</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="8">
         <v>43008</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="2" t="str">
+      <c r="F28" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="8">
         <v>43010</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="8">
         <v>43008</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="2" t="str">
+      <c r="F29" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="8">
         <v>43010</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="8">
         <v>43008</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="2" t="str">
+      <c r="F30" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="8">
         <v>43010</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="8">
         <v>43008</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="2" t="str">
+      <c r="F31" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="8">
         <v>43008</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="2" t="str">
+      <c r="F32" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="8">
         <v>43010</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="8">
         <v>43008</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="2" t="str">
+      <c r="F33" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="8">
         <v>43010</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="8">
         <v>43008</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="2" t="str">
+      <c r="F34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="8">
         <v>43010</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="8">
         <v>43008</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="2" t="str">
+      <c r="F35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="8">
         <v>43010</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="8">
         <v>43008</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="2" t="str">
+      <c r="F36" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="8">
         <v>43010</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="8">
         <v>43008</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="2" t="str">
+      <c r="F37" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="8">
         <v>43010</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="8">
         <v>43008</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="2" t="str">
+      <c r="F38" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="8">
         <v>43010</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="8">
         <v>43008</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="2" t="str">
+      <c r="F39" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="8">
         <v>43008</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="2" t="str">
+      <c r="F40" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="8">
         <v>43018</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="2" t="str">
+      <c r="F41" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="8">
         <v>43018</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="2" t="str">
+      <c r="F42" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="8">
         <v>43024</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="8">
         <v>43023</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="33" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="8">
         <v>43018</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="2" t="str">
+      <c r="F43" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="8">
         <v>43024</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="8">
         <v>43023</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="8">
         <v>43018</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="2" t="str">
+      <c r="F44" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="8">
         <v>43024</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="8">
         <v>43023</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="8">
         <v>43018</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="2" t="str">
+      <c r="F45" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="8">
         <v>43018</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>否</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="F46" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+      <c r="G46" s="8">
         <v>43024</v>
       </c>
-      <c r="H46" s="3"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="8">
         <v>43018</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="2" t="str">
+      <c r="F47" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="8">
         <v>43018</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="8">
         <v>43018</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>否</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="F48" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+      <c r="G48" s="8">
         <v>43024</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="8">
         <v>43018</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="2" t="str">
+      <c r="F49" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="8">
         <v>43024</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="8">
         <v>43018</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="2" t="str">
+      <c r="F50" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="8">
         <v>43024</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="8">
         <v>43023</v>
       </c>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="8">
         <v>43018</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F51" s="2" t="str">
+      <c r="F51" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="8">
         <v>43018</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="8">
         <v>43018</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="8">
         <v>43019</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="2" t="str">
+      <c r="F52" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="8">
         <v>43024</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="8">
         <v>43023</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="8">
         <v>43019</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="2" t="str">
+      <c r="F53" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="8">
         <v>43019</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="2" t="str">
+      <c r="F54" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="8">
         <v>43019</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="2" t="str">
+      <c r="F55" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="8">
         <v>43019</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="2" t="str">
+      <c r="F56" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="8">
         <v>43019</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="2" t="str">
+      <c r="F57" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="8">
         <v>43024</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="8">
         <v>43023</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="8">
         <v>43019</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>否</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F58" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>否</v>
+      </c>
+      <c r="G58" s="8">
         <v>43024</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="8">
         <v>43019</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F59" s="2" t="str">
+      <c r="F59" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="8">
         <v>43024</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="8">
         <v>43023</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="8">
         <v>43019</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>否</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="F60" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>是</v>
+      </c>
+      <c r="G60" s="8">
         <v>43024</v>
       </c>
+      <c r="H60" s="8">
+        <v>43024</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="8">
         <v>43019</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="2" t="str">
+      <c r="F61" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="8">
         <v>43024</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="8">
         <v>43023</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="33" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="8">
         <v>43019</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F62" s="2" t="str">
+      <c r="F62" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="8">
         <v>43024</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="8">
         <v>43023</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="8">
         <v>43019</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="2" t="str">
+      <c r="F63" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="8">
         <v>43024</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="8">
         <v>43023</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="8">
         <v>43019</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="2" t="str">
+      <c r="F64" s="7" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="8">
         <v>43024</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="8">
         <v>43023</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="F65" s="2" t="str">
+      <c r="F65" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="F66" s="2" t="str">
+      <c r="F66" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="F67" s="2" t="str">
+      <c r="F67" s="7" t="str">
         <f t="shared" ref="F67:F80" si="1">IF(H67="","否","是")</f>
         <v>否</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="F68" s="2" t="str">
+      <c r="F68" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="F69" s="2" t="str">
+      <c r="F69" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="F70" s="2" t="str">
+      <c r="F70" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="F71" s="2" t="str">
+      <c r="F71" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="F72" s="2" t="str">
+      <c r="F72" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="F73" s="2" t="str">
+      <c r="F73" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="2">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="F74" s="2" t="str">
+      <c r="F74" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="F75" s="2" t="str">
+      <c r="F75" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="F76" s="2" t="str">
+      <c r="F76" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="2">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="F77" s="2" t="str">
+      <c r="F77" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="F78" s="2" t="str">
+      <c r="F78" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="F79" s="2" t="str">
+      <c r="F79" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="F80" s="2" t="str">
+      <c r="F80" s="7" t="str">
         <f t="shared" si="1"/>
         <v>否</v>
       </c>
     </row>
-    <row r="81" spans="4:8" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D82" s="6" t="s">
+    <row r="81" spans="3:8" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="3:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="C82" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="8">
         <v>43023</v>
       </c>
     </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D83" s="6" t="s">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="8">
         <v>43023</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="C84" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="C85" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2992,226 +3063,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="60.125" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3703,4 +3554,224 @@
   <pageMargins left="0.25" right="0.25" top="0.34" bottom="0.27" header="0.21" footer="0.17"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="60.125" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270"/>
@@ -1256,7 +1256,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2430,12 +2430,14 @@
       </c>
       <c r="F48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G48" s="8">
         <v>43024</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="8">
+        <v>43027</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="7">

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="199">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,22 +368,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Procedure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>改动类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,10 +717,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改为提交表单时选择的施印人为审批人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务评审委员会秘书改为郭斌、杨好、陆野、许益丹，风险管理委员会秘书改为汪宏明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -766,6 +746,20 @@
   </si>
   <si>
     <t>流程改为：A-B-A的部门经理-风管部部门经理-业务评审委员会-业务评审委员会秘书录入决议-风管委员会秘书决定是否上风管委员会-风管委员会秘书录入风管会决议-分管风险领导-决策人（2000万分界）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_customer` </t>
+  </si>
+  <si>
+    <t>ADD COLUMN `PROJROL` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '追偿收入' AFTER `FUL_ID`;</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbs_customer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,11 +1246,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1289,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>4</v>
@@ -2227,7 +2221,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>7</v>
@@ -2245,10 +2239,10 @@
         <v>43018</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>7</v>
@@ -2266,10 +2260,10 @@
         <v>43018</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>7</v>
@@ -2293,10 +2287,10 @@
         <v>43018</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>59</v>
@@ -2320,13 +2314,13 @@
         <v>43018</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F44" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2347,10 +2341,10 @@
         <v>43018</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>59</v>
@@ -2368,10 +2362,10 @@
         <v>43018</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>7</v>
@@ -2393,13 +2387,13 @@
         <v>43018</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F47" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2420,10 +2414,10 @@
         <v>43018</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>7</v>
@@ -2439,7 +2433,7 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -2447,13 +2441,13 @@
         <v>43018</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F49" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2463,10 +2457,10 @@
         <v>43024</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -2474,10 +2468,10 @@
         <v>43018</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>59</v>
@@ -2493,7 +2487,7 @@
         <v>43023</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -2501,13 +2495,13 @@
         <v>43018</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F51" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2520,7 +2514,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -2528,13 +2522,13 @@
         <v>43019</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F52" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2547,7 +2541,7 @@
         <v>43023</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -2555,10 +2549,10 @@
         <v>43019</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>7</v>
@@ -2568,7 +2562,7 @@
         <v>否</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -2576,20 +2570,20 @@
         <v>43019</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F54" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -2597,20 +2591,20 @@
         <v>43019</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="E55" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F55" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -2618,20 +2612,20 @@
         <v>43019</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F56" s="7" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -2639,13 +2633,13 @@
         <v>43019</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F57" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2658,7 +2652,7 @@
         <v>43023</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -2666,10 +2660,10 @@
         <v>43019</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>59</v>
@@ -2682,7 +2676,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -2690,13 +2684,13 @@
         <v>43019</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F59" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2709,7 +2703,7 @@
         <v>43023</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -2717,13 +2711,13 @@
         <v>43019</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F60" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2736,7 +2730,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -2744,10 +2738,10 @@
         <v>43019</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>59</v>
@@ -2763,7 +2757,7 @@
         <v>43023</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -2771,10 +2765,10 @@
         <v>43019</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>59</v>
@@ -2789,11 +2783,8 @@
       <c r="H62" s="8">
         <v>43023</v>
       </c>
-      <c r="I62" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -2801,10 +2792,10 @@
         <v>43019</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>59</v>
@@ -2820,7 +2811,7 @@
         <v>43023</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -2828,10 +2819,10 @@
         <v>43019</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>59</v>
@@ -2994,10 +2985,10 @@
     <row r="81" spans="3:8" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="82" spans="3:8" ht="49.5" x14ac:dyDescent="0.15">
       <c r="C82" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H82" s="8">
         <v>43023</v>
@@ -3005,10 +2996,10 @@
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C83" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H83" s="8">
         <v>43023</v>
@@ -3016,18 +3007,18 @@
     </row>
     <row r="84" spans="3:8" ht="33" x14ac:dyDescent="0.15">
       <c r="C84" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="49.5" x14ac:dyDescent="0.15">
       <c r="C85" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3069,14 +3060,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
@@ -3088,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3110,36 +3101,39 @@
       <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>88</v>
+      <c r="B3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -3574,202 +3568,202 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" t="s">
         <v>163</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="程序改动" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="202">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,374 +392,408 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>承保时，和承保补录时需要输入业务类品金，以补录时候输入的为准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不定期检查</t>
+  </si>
+  <si>
+    <t>不定期检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风管委员会改为业务评审委员会，秘书改为郭斌、杨好、陆野、许益丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合管理部请印</t>
+  </si>
+  <si>
+    <t>综合管理部请印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人员设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保审批</t>
+  </si>
+  <si>
+    <t>立项审批表查询</t>
+  </si>
+  <si>
+    <t>代偿请款</t>
+  </si>
+  <si>
+    <t>项目经理变更</t>
+  </si>
+  <si>
+    <t>项目解保</t>
+  </si>
+  <si>
+    <t>请印表单“经办人”改名“施印人”，施印人只显示有行政经理权限的人以及综合管理部部门经理</t>
+  </si>
+  <si>
+    <t>财务部门经理”只能手输，下拉框中只有“财务部门经理[副]”，且只有改为“财务部门经理”才有效，审批人设定菜单里面的title要全部采用下拉框，禁止手动输入</t>
+  </si>
+  <si>
+    <t>“分管业务领导”审批环节，描述还是“业务总监”</t>
+  </si>
+  <si>
+    <t>承保审批表无法录入“业务类品金”，当决策审批表中未录入“业务类品金”时，承保补录菜单中也要有“业务类品金”，并以承保补录单为准</t>
+  </si>
+  <si>
+    <t>立项查询表单删除，统一改为项目查询表单</t>
+  </si>
+  <si>
+    <t>请印审批流程，审批人无法看到提交人提交的表单信息</t>
+  </si>
+  <si>
+    <t>代偿请款流程单据中的“在保金额”字段隐藏</t>
+  </si>
+  <si>
+    <t>我方测试人员提出，新项目经理要确认后方可生效</t>
+  </si>
+  <si>
+    <t>这个项目已经审批通过，但审批状态显示的是审批驳回</t>
+  </si>
+  <si>
+    <t>不能上传附件</t>
+  </si>
+  <si>
+    <t>操作类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代偿审议</t>
+  </si>
+  <si>
+    <t>决策审批、不定期检查、代偿审议、项目变更</t>
+  </si>
+  <si>
+    <t>业务审核委员会或风险管理委员会秘书录入决议时，先弹出意见，决议内容需要另点标签不直观，容易遗漏</t>
+  </si>
+  <si>
+    <t>跨部门的审核是否还是业务总监来审核？</t>
+  </si>
+  <si>
+    <t>流程改为：A-B-A的部门经理-风管部部门经理-业务评审委员会-业务评审委员会秘书录入决议-风管委员会秘书决定是否上风管委员会-风管委员会秘书录入风管会决议-分管风险领导-决策人（2000万分界）</t>
+  </si>
+  <si>
+    <t>代偿审议表单</t>
+  </si>
+  <si>
+    <t>增加字段：担保金额、担保余额、合作银行、担保期限、反担保措施、拟代偿本金（手动输入）</t>
+  </si>
+  <si>
+    <t>反担保信息维护菜单</t>
+  </si>
+  <si>
+    <t>质押大类-汇票/本票/支票小类，增加字段：出票人和到期日</t>
+  </si>
+  <si>
+    <t>追偿</t>
+  </si>
+  <si>
+    <t>代偿余额未根据追偿金额变化，少追偿收入字段</t>
+  </si>
+  <si>
+    <t>决策审批</t>
+  </si>
+  <si>
+    <t>业务类品金大类改为必填</t>
+  </si>
+  <si>
+    <t>业务类品金类别与金额都必填</t>
+  </si>
+  <si>
+    <t>法务经理审批环节，看不到审批历史</t>
+  </si>
+  <si>
+    <t>申请表和审批表不一致，三个人分别为请印人、施印人、经办人，施印人控制为行政经理和综合管理部部门经理</t>
+  </si>
+  <si>
+    <t>反担保解除-风管经理调整授信额度</t>
+  </si>
+  <si>
+    <t>反担保解除变更数据标签表单中，无数据单位</t>
+  </si>
+  <si>
+    <t>综合管理部部门经理也要能够审批</t>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事长</t>
+  </si>
+  <si>
+    <t>业务总监</t>
+  </si>
+  <si>
+    <t>副总经理</t>
+  </si>
+  <si>
+    <t>总经理助理</t>
+  </si>
+  <si>
+    <t>业务一部门经理</t>
+  </si>
+  <si>
+    <t>业务三部门经理[副]</t>
+  </si>
+  <si>
+    <t>综合管理部门经理</t>
+  </si>
+  <si>
+    <t>风管经理</t>
+  </si>
+  <si>
+    <t>法务经理</t>
+  </si>
+  <si>
+    <t>业务审核委员会成员</t>
+  </si>
+  <si>
+    <t>分管风管总经理</t>
+  </si>
+  <si>
+    <t>评审会秘书</t>
+  </si>
+  <si>
+    <t>分管行政总经理</t>
+  </si>
+  <si>
+    <t>业管会主任委员</t>
+  </si>
+  <si>
+    <t>分管财务总经理</t>
+  </si>
+  <si>
+    <t>财务部门经理</t>
+  </si>
+  <si>
+    <t>出纳</t>
+  </si>
+  <si>
+    <t>业务二部门经理</t>
+  </si>
+  <si>
+    <t>董事长[总经理/决策人]</t>
+  </si>
+  <si>
+    <t>副总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务一部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务二部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务三部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险管理部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险管理部门经理[副]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合管理部门经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风管经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法务经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受理请印人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险控制委员会成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务审核委员会成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控会主任委员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业管会主任委员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分管财务总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分管行政总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分管风管总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,,,,,,,,,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审会秘书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分管业务总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务一部部门经理助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务拓展部门副经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务评审委员会秘书改为郭斌、杨好、陆野、许益丹，风险管理委员会秘书改为汪宏明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后来得到反馈，此项不需要修改，跨部门审批人修改为分管业务总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳审批环节现在不必先领取任务，可以直接进入处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程描述中加入了项目名称，方便区分不同项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策审批、不定期检查、代偿审议、项目变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保单审批，项目与反担保关联，费用收取，费用退回风险解除(追偿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程改为：A-B-A的部门经理-风管部部门经理-业务评审委员会-业务评审委员会秘书录入决议-风管委员会秘书决定是否上风管委员会-风管委员会秘书录入风管会决议-分管风险领导-决策人（2000万分界）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_customer` </t>
+  </si>
+  <si>
+    <t>ADD COLUMN `PROJROL` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '追偿收入' AFTER `FUL_ID`;</t>
+  </si>
+  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>承保时，和承保补录时需要输入业务类品金，以补录时候输入的为准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不定期检查</t>
-  </si>
-  <si>
-    <t>不定期检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风管委员会改为业务评审委员会，秘书改为郭斌、杨好、陆野、许益丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合管理部请印</t>
-  </si>
-  <si>
-    <t>综合管理部请印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人员设定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立项审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承保审批</t>
-  </si>
-  <si>
-    <t>立项审批表查询</t>
-  </si>
-  <si>
-    <t>代偿请款</t>
-  </si>
-  <si>
-    <t>项目经理变更</t>
-  </si>
-  <si>
-    <t>项目解保</t>
-  </si>
-  <si>
-    <t>请印表单“经办人”改名“施印人”，施印人只显示有行政经理权限的人以及综合管理部部门经理</t>
-  </si>
-  <si>
-    <t>财务部门经理”只能手输，下拉框中只有“财务部门经理[副]”，且只有改为“财务部门经理”才有效，审批人设定菜单里面的title要全部采用下拉框，禁止手动输入</t>
-  </si>
-  <si>
-    <t>“分管业务领导”审批环节，描述还是“业务总监”</t>
-  </si>
-  <si>
-    <t>承保审批表无法录入“业务类品金”，当决策审批表中未录入“业务类品金”时，承保补录菜单中也要有“业务类品金”，并以承保补录单为准</t>
-  </si>
-  <si>
-    <t>立项查询表单删除，统一改为项目查询表单</t>
-  </si>
-  <si>
-    <t>请印审批流程，审批人无法看到提交人提交的表单信息</t>
-  </si>
-  <si>
-    <t>代偿请款流程单据中的“在保金额”字段隐藏</t>
-  </si>
-  <si>
-    <t>我方测试人员提出，新项目经理要确认后方可生效</t>
-  </si>
-  <si>
-    <t>这个项目已经审批通过，但审批状态显示的是审批驳回</t>
-  </si>
-  <si>
-    <t>不能上传附件</t>
-  </si>
-  <si>
-    <t>操作类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代偿审议</t>
-  </si>
-  <si>
-    <t>决策审批、不定期检查、代偿审议、项目变更</t>
-  </si>
-  <si>
-    <t>业务审核委员会或风险管理委员会秘书录入决议时，先弹出意见，决议内容需要另点标签不直观，容易遗漏</t>
-  </si>
-  <si>
-    <t>跨部门的审核是否还是业务总监来审核？</t>
-  </si>
-  <si>
-    <t>流程改为：A-B-A的部门经理-风管部部门经理-业务评审委员会-业务评审委员会秘书录入决议-风管委员会秘书决定是否上风管委员会-风管委员会秘书录入风管会决议-分管风险领导-决策人（2000万分界）</t>
-  </si>
-  <si>
-    <t>代偿审议表单</t>
-  </si>
-  <si>
-    <t>增加字段：担保金额、担保余额、合作银行、担保期限、反担保措施、拟代偿本金（手动输入）</t>
-  </si>
-  <si>
-    <t>反担保信息维护菜单</t>
-  </si>
-  <si>
-    <t>质押大类-汇票/本票/支票小类，增加字段：出票人和到期日</t>
-  </si>
-  <si>
-    <t>追偿</t>
-  </si>
-  <si>
-    <t>代偿余额未根据追偿金额变化，少追偿收入字段</t>
-  </si>
-  <si>
-    <t>决策审批</t>
-  </si>
-  <si>
-    <t>业务类品金大类改为必填</t>
-  </si>
-  <si>
-    <t>业务类品金类别与金额都必填</t>
-  </si>
-  <si>
-    <t>法务经理审批环节，看不到审批历史</t>
-  </si>
-  <si>
-    <t>申请表和审批表不一致，三个人分别为请印人、施印人、经办人，施印人控制为行政经理和综合管理部部门经理</t>
-  </si>
-  <si>
-    <t>反担保解除-风管经理调整授信额度</t>
-  </si>
-  <si>
-    <t>反担保解除变更数据标签表单中，无数据单位</t>
-  </si>
-  <si>
-    <t>综合管理部部门经理也要能够审批</t>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董事长</t>
-  </si>
-  <si>
-    <t>业务总监</t>
-  </si>
-  <si>
-    <t>副总经理</t>
-  </si>
-  <si>
-    <t>总经理助理</t>
-  </si>
-  <si>
-    <t>业务一部门经理</t>
-  </si>
-  <si>
-    <t>业务三部门经理[副]</t>
-  </si>
-  <si>
-    <t>综合管理部门经理</t>
-  </si>
-  <si>
-    <t>风管经理</t>
-  </si>
-  <si>
-    <t>法务经理</t>
-  </si>
-  <si>
-    <t>业务审核委员会成员</t>
-  </si>
-  <si>
-    <t>分管风管总经理</t>
-  </si>
-  <si>
-    <t>评审会秘书</t>
-  </si>
-  <si>
-    <t>分管行政总经理</t>
-  </si>
-  <si>
-    <t>业管会主任委员</t>
-  </si>
-  <si>
-    <t>分管财务总经理</t>
-  </si>
-  <si>
-    <t>财务部门经理</t>
-  </si>
-  <si>
-    <t>出纳</t>
-  </si>
-  <si>
-    <t>业务二部门经理</t>
-  </si>
-  <si>
-    <t>董事长[总经理/决策人]</t>
-  </si>
-  <si>
-    <t>副总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务一部门经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务二部门经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务三部门经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险管理部门经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险管理部门经理[副]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务部门经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合管理部门经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出纳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风管经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法务经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受理请印人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险控制委员会成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务审核委员会成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控会主任委员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业管会主任委员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分管财务总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分管行政总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分管风管总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,,,,,,,,,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评审会秘书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分管业务总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务一部部门经理助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务拓展部门副经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务评审委员会秘书改为郭斌、杨好、陆野、许益丹，风险管理委员会秘书改为汪宏明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后来得到反馈，此项不需要修改，跨部门审批人修改为分管业务总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出纳审批环节现在不必先领取任务，可以直接进入处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程描述中加入了项目名称，方便区分不同项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策审批、不定期检查、代偿审议、项目变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承保单审批，项目与反担保关联，费用收取，费用退回风险解除(追偿)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程改为：A-B-A的部门经理-风管部部门经理-业务评审委员会-业务评审委员会秘书录入决议-风管委员会秘书决定是否上风管委员会-风管委员会秘书录入风管会决议-分管风险领导-决策人（2000万分界）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_customer` </t>
-  </si>
-  <si>
-    <t>ADD COLUMN `PROJROL` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '追偿收入' AFTER `FUL_ID`;</t>
+    <t>tbs_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-- 更新客户表内客户的代偿余额 
+    -- 当追偿小于代偿时更新代偿余额，当收入大于代偿时更新追偿收入
+    DECLARE rol decimal(13,2); 
+    set rol= (select sum(je) 
+     from (select cus_id,sum(bcdczje) as je from tbs_projcompsry_pay 
+     where valid=1 and del=0 and cus_id=cusid
+     group by cus_id 
+     UNION ALL
+     select cus_id,0-sum(bczczje) as je from tbs_projrol 
+     where valid=1 and del=0 and cus_id=cusid
+     group by cus_id) a) ;
+    if(rol&gt;=0) then                
+  update tbs_customer 
+   set compsry =  rol  where id = cusid;
+  update tbs_customer 
+   set projrol =  0  where id = cusid;
+    end if;
+    if(rol&lt;0) then
+  update tbs_customer 
+   set compsry =  0  where id = cusid;
+  update tbs_customer 
+   set projrol =  0-rol  where id = cusid;
+    end if;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tbs_customer</t>
+    <t>STORED PROCEDURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_compsry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,6 +929,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,7 +1285,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
@@ -1283,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>4</v>
@@ -2221,7 +2258,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>7</v>
@@ -2239,10 +2276,10 @@
         <v>43018</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>7</v>
@@ -2260,10 +2297,10 @@
         <v>43018</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>7</v>
@@ -2287,10 +2324,10 @@
         <v>43018</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>59</v>
@@ -2314,13 +2351,13 @@
         <v>43018</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F44" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2341,10 +2378,10 @@
         <v>43018</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>59</v>
@@ -2362,10 +2399,10 @@
         <v>43018</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>7</v>
@@ -2387,13 +2424,13 @@
         <v>43018</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2414,10 +2451,10 @@
         <v>43018</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>7</v>
@@ -2441,13 +2478,13 @@
         <v>43018</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2457,7 +2494,7 @@
         <v>43024</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2468,10 +2505,10 @@
         <v>43018</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>59</v>
@@ -2495,13 +2532,13 @@
         <v>43018</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="F51" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2522,13 +2559,13 @@
         <v>43019</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2549,10 +2586,10 @@
         <v>43019</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>7</v>
@@ -2570,13 +2607,13 @@
         <v>43019</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F54" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2591,13 +2628,13 @@
         <v>43019</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F55" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2612,13 +2649,13 @@
         <v>43019</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="E56" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2633,13 +2670,13 @@
         <v>43019</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="E57" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2660,10 +2697,10 @@
         <v>43019</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>59</v>
@@ -2684,13 +2721,13 @@
         <v>43019</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="E59" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F59" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2711,13 +2748,13 @@
         <v>43019</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F60" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2738,10 +2775,10 @@
         <v>43019</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>59</v>
@@ -2765,10 +2802,10 @@
         <v>43019</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>59</v>
@@ -2792,10 +2829,10 @@
         <v>43019</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>59</v>
@@ -2819,10 +2856,10 @@
         <v>43019</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>59</v>
@@ -2985,10 +3022,10 @@
     <row r="81" spans="3:8" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="82" spans="3:8" ht="49.5" x14ac:dyDescent="0.15">
       <c r="C82" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H82" s="8">
         <v>43023</v>
@@ -2996,10 +3033,10 @@
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C83" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H83" s="8">
         <v>43023</v>
@@ -3007,18 +3044,18 @@
     </row>
     <row r="84" spans="3:8" ht="33" x14ac:dyDescent="0.15">
       <c r="C84" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="49.5" x14ac:dyDescent="0.15">
       <c r="C85" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3058,15 +3095,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="2" bestFit="1" customWidth="1"/>
@@ -3102,32 +3139,37 @@
         <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -3568,202 +3610,202 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="209">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -749,10 +749,6 @@
   </si>
   <si>
     <t>ADD COLUMN `PROJROL` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '追偿收入' AFTER `FUL_ID`;</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tbs_customer</t>
@@ -785,15 +781,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STORED PROCEDURE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>p_compsry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projundwrt` 
+ADD COLUMN `BY4` VARCHAR(300) NULL DEFAULT '0' COMMENT '触发update的trigger用' AFTER `BY2`;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbs_projundwrt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE `tbs`.`tbs_projundwrt` 
+ADD COLUMN `ZBE` DECIMAL(13,2) NULL DEFAULT '0' COMMENT '在保额;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE DEFINER=`root`@`localhost` TRIGGER `tbs`.`tbs_projundwrt_BEFORE_UPDATE` BEFORE UPDATE ON `tbs_projundwrt` FOR EACH ROW
+BEGIN
+ /*
+    -- 日期格式调整
+    set new.bdate = DATE_FORMAT(new.bdate,"%Y-%m-%d");
+    set new.edate = concat(DATE_FORMAT(new.edate,"%Y-%m-%d")," ","23:59:59");
+    set new.undbdate = DATE_FORMAT(new.undbdate,"%Y-%m-%d");
+    set new.undedate = concat(DATE_FORMAT(new.undedate,"%Y-%m-%d")," ","23:59:59");
+    -- set new.undedate = concat(DATE_FORMAT(date_add(new.undbdate,INTERVAL new.by3 month),"%Y-%m-%d")," ","23:59:59"); -- 2016-04-12 不需要系统计算承保结束日期
+    */
+ DECLARE newzbe decimal(13,2); 
+    -- 日期格式调整
+    set new.bdate = DATE_FORMAT(new.bdate,"%Y-%m-%d");
+    set new.edate = concat(DATE_FORMAT(new.edate,"%Y-%m-%d")," ","23:59:59");
+    set new.undbdate = DATE_FORMAT(new.undbdate,"%Y-%m-%d");
+    set new.undedate = concat(DATE_FORMAT(new.undedate,"%Y-%m-%d")," ","23:59:59");
+    -- set new.undedate = concat(DATE_FORMAT(date_add(new.undbdate,INTERVAL new.by3 month),"%Y-%m-%d")," ","23:59:59"); -- 2016-04-12 不需要系统计算承保结束日期
+ -- 计算承保单在保额
+    set newzbe = (select sum(a.BCDCZBJ) from tbs_projcompsry_pay a where a.UNDWRT_ID= new.id);
+    if newzbe &gt; 0  then 
+    set new.zbe = new.RLSTOTLOC-newzbe;
+    else 
+ set new.zbe = new.RLSTOTLOC;
+    end if ;
+END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保审批单增加在保额字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE `tbs`.`tbs_projcompsry_pay` 
+ADD COLUMN `BCDCZSR` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '本次追偿收入(总)' AFTER `BCDCZLX`;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbs_projcompsry_pay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1283,11 +1340,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2705,9 +2762,8 @@
       <c r="E58" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F58" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>否</v>
+      <c r="F58" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="G58" s="8">
         <v>43024</v>
@@ -3056,6 +3112,15 @@
       </c>
       <c r="D85" s="10" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C86" s="2"/>
+      <c r="D86" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" s="8">
+        <v>43031</v>
       </c>
     </row>
   </sheetData>
@@ -3096,15 +3161,15 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
@@ -3139,13 +3204,13 @@
         <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.15">
@@ -3159,41 +3224,73 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="210">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -809,6 +809,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保审批单增加在保额字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE `tbs`.`tbs_projcompsry_pay` 
+ADD COLUMN `BCDCZSR` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '本次追偿收入(总)' AFTER `BCDCZLX`;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbs_projcompsry_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE DEFINER = CURRENT_USER TRIGGER `tbs`.`tbs_projcompsry_pay_AFTER_UPDATE` AFTER UPDATE ON `tbs_projcompsry_pay` FOR EACH ROW
+BEGIN
+ if new.valid = 1 and OLD.valid &lt;&gt; 1 then
+  update tbs_projundwrt 
+  set rlsfaloc = rlsfaloc - new.faloc,
+   rlsnfaloc = rlsnfaloc - new.nfaloc,
+   rlsotloc = rlsotloc - new.otloc,
+   rlstotloc = rlstotloc - new.BCDCZBJ
+  where id= new.undwrt_id;
+    end if;
+END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CREATE DEFINER=`root`@`localhost` TRIGGER `tbs`.`tbs_projundwrt_BEFORE_UPDATE` BEFORE UPDATE ON `tbs_projundwrt` FOR EACH ROW
 BEGIN
  /*
@@ -826,31 +857,9 @@
     set new.undbdate = DATE_FORMAT(new.undbdate,"%Y-%m-%d");
     set new.undedate = concat(DATE_FORMAT(new.undedate,"%Y-%m-%d")," ","23:59:59");
     -- set new.undedate = concat(DATE_FORMAT(date_add(new.undbdate,INTERVAL new.by3 month),"%Y-%m-%d")," ","23:59:59"); -- 2016-04-12 不需要系统计算承保结束日期
- -- 计算承保单在保额
-    set newzbe = (select sum(a.BCDCZBJ) from tbs_projcompsry_pay a where a.UNDWRT_ID= new.id);
-    if newzbe &gt; 0  then 
-    set new.zbe = new.RLSTOTLOC-newzbe;
-    else 
+ -- 同步承保单在保额，应该是永远等于可解保总额
  set new.zbe = new.RLSTOTLOC;
-    end if ;
 END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承保审批单增加在保额字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALTER TABLE `tbs`.`tbs_projcompsry_pay` 
-ADD COLUMN `BCDCZSR` DECIMAL(13,2) NULL DEFAULT '0.00' COMMENT '本次追偿收入(总)' AFTER `BCDCZLX`;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbs_projcompsry_pay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3117,7 +3126,7 @@
     <row r="86" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C86" s="2"/>
       <c r="D86" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H86" s="8">
         <v>43031</v>
@@ -3160,9 +3169,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3170,13 +3179,13 @@
     <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="137.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +3222,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="D3" s="4" t="s">
         <v>195</v>
@@ -3236,7 +3245,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3250,7 +3259,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3269,13 +3278,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
@@ -3286,17 +3295,25 @@
         <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="231" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2">

--- a/国联项目修改汇总.xlsx
+++ b/国联项目修改汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7455"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">程序整体改动记录表!$A$1:$H$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">二期验收相关改动列表!$A$1:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">二期验收相关改动列表!$A$1:$H$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数据库改动!$A$1:$D$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">增补项目列表!$A$1:$H$102</definedName>
   </definedNames>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="309">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1323,6 +1323,42 @@
   </si>
   <si>
     <t>承保审批单增加在保额字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务审核委员会或风险管理委员会秘书录入决议时，先弹出意见，决议内容需要另点标签不直观，容易遗漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加项目简介输入框，读写权限控制和导出报表中也要有项目简介内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务报表在导出时只需要导出最终审核通过的意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照给定的报表样式制作报表导出模块并上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务报表中项目简介等长文本分行错误及文字显示不完整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期格式调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1458,7 +1494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1520,9 +1556,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1530,7 +1563,47 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1925,11 +1998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26:H30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2528,7 +2601,7 @@
         <v>154</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f>IF(H22="","否","是")</f>
+        <f t="shared" ref="F22:F34" si="1">IF(H22="","否","是")</f>
         <v>是</v>
       </c>
       <c r="H22" s="3">
@@ -2552,7 +2625,7 @@
         <v>154</v>
       </c>
       <c r="F23" s="2" t="str">
-        <f>IF(H23="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="H23" s="3">
@@ -2576,7 +2649,7 @@
         <v>149</v>
       </c>
       <c r="F24" s="2" t="str">
-        <f>IF(H24="","否","是")</f>
+        <f t="shared" si="1"/>
         <v>是</v>
       </c>
       <c r="H24" s="3">
@@ -2598,73 +2671,310 @@
         <v>146</v>
       </c>
       <c r="F25" s="2" t="str">
-        <f>IF(H25="","否","是")</f>
-        <v>否</v>
+        <f t="shared" si="1"/>
+        <v>是</v>
       </c>
       <c r="G25" s="3">
         <v>43026</v>
       </c>
+      <c r="H25" s="3">
+        <v>43026</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="2">
+        <v>68</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="4" t="s">
         <v>294</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>是</v>
+      </c>
+      <c r="G26" s="3">
+        <v>43023</v>
       </c>
       <c r="H26" s="3">
         <v>43023</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C27" s="12" t="s">
+      <c r="A27" s="2">
+        <v>69</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="4" t="s">
         <v>296</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>是</v>
+      </c>
+      <c r="G27" s="3">
+        <v>43023</v>
       </c>
       <c r="H27" s="3">
         <v>43023</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="2">
+        <v>70</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>110</v>
+      <c r="D28" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>是</v>
+      </c>
+      <c r="G28" s="3">
+        <v>43023</v>
+      </c>
+      <c r="H28" s="3">
+        <v>43023</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="C29" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="A29" s="2">
+        <v>71</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>298</v>
       </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>是</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43023</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43023</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D30" s="4" t="s">
         <v>299</v>
       </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>是</v>
+      </c>
+      <c r="G30" s="3">
+        <v>43031</v>
+      </c>
       <c r="H30" s="3">
         <v>43031</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D39" s="4" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>73</v>
+      </c>
+      <c r="B31" s="3">
+        <v>43129</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>是</v>
+      </c>
+      <c r="G31" s="3">
+        <v>43136</v>
+      </c>
+      <c r="H31" s="3">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43129</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" ref="F32" si="2">IF(H32="","否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="G32" s="3">
+        <v>43136</v>
+      </c>
+      <c r="H32" s="3">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43136</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>是</v>
+      </c>
+      <c r="G33" s="3">
+        <v>43140</v>
+      </c>
+      <c r="H33" s="3">
+        <v>43140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>76</v>
+      </c>
+      <c r="B34" s="3">
+        <v>43137</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>是</v>
+      </c>
+      <c r="G34" s="3">
+        <v>43140</v>
+      </c>
+      <c r="H34" s="3">
+        <v>43140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>77</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43137</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" ref="F35" si="3">IF(H35="","否","是")</f>
+        <v>是</v>
+      </c>
+      <c r="G35" s="3">
+        <v>43140</v>
+      </c>
+      <c r="H35" s="3">
+        <v>43140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D40" s="4" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F31:F57 F2:F21">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="F36:F58 F2:F21">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F25">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F35">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2678,8 +2988,8 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69:F70"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G68" sqref="G68:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4379,12 +4689,14 @@
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G68" s="17">
         <v>43039</v>
       </c>
-      <c r="H68" s="17"/>
+      <c r="H68" s="17">
+        <v>43039</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
@@ -4420,11 +4732,16 @@
       <c r="E70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="F70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>是</v>
+      </c>
+      <c r="G70" s="3">
+        <v>43136</v>
+      </c>
+      <c r="H70" s="3">
+        <v>43144</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
@@ -4708,13 +5025,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F69 F71:F100">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F100">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"是"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4732,10 +5044,10 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21:H21"/>
+      <selection pane="bottomRight" activeCell="G59" sqref="G59:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6670,10 +6982,13 @@
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G59" s="3">
         <v>43024</v>
+      </c>
+      <c r="H59" s="3">
+        <v>43029</v>
       </c>
       <c r="I59" s="2">
         <v>20</v>
@@ -6706,10 +7021,13 @@
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G60" s="3">
         <v>43024</v>
+      </c>
+      <c r="H60" s="3">
+        <v>43029</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
@@ -6730,10 +7048,13 @@
       </c>
       <c r="F61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G61" s="3">
         <v>43024</v>
+      </c>
+      <c r="H61" s="3">
+        <v>43029</v>
       </c>
       <c r="I61" s="2">
         <v>30</v>
@@ -6766,10 +7087,13 @@
       </c>
       <c r="F62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G62" s="3">
         <v>43024</v>
+      </c>
+      <c r="H62" s="3">
+        <v>43029</v>
       </c>
       <c r="I62" s="2">
         <v>30</v>
@@ -6802,10 +7126,13 @@
       </c>
       <c r="F63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G63" s="3">
         <v>43024</v>
+      </c>
+      <c r="H63" s="3">
+        <v>43029</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="33" x14ac:dyDescent="0.15">
@@ -6826,10 +7153,13 @@
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G64" s="3">
         <v>43024</v>
+      </c>
+      <c r="H64" s="3">
+        <v>43029</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
@@ -6874,10 +7204,13 @@
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G66" s="3">
         <v>43024</v>
+      </c>
+      <c r="H66" s="3">
+        <v>43029</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="33" x14ac:dyDescent="0.15">
@@ -6989,12 +7322,14 @@
       </c>
       <c r="F70" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>否</v>
-      </c>
-      <c r="G70" s="21">
+        <v>是</v>
+      </c>
+      <c r="G70" s="3">
         <v>43039</v>
       </c>
-      <c r="H70" s="4"/>
+      <c r="H70" s="3">
+        <v>43039</v>
+      </c>
       <c r="I70" s="12"/>
       <c r="J70" s="11"/>
       <c r="K70" s="12"/>
@@ -7407,7 +7742,7 @@
       <c r="C4" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>284</v>
       </c>
       <c r="E4" s="2" t="s">
